--- a/artifacts/failure_cases/results/retrieval_results.xlsx
+++ b/artifacts/failure_cases/results/retrieval_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\arnav\Documents\VS Code\RAG 12 Week Series\rag-failure-modes\artifacts\failure_cases\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0648BF-D210-498A-9F33-F863F54C5065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F045AA-194C-4DC8-9968-C0418A7DB78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
   <si>
     <t>gold_doc_id</t>
   </si>
@@ -129,12 +129,6 @@
   </si>
   <si>
     <t>Sinusoidal detail is precise; retrieval strongly expected</t>
-  </si>
-  <si>
-    <t>gold_in_top20</t>
-  </si>
-  <si>
-    <t>gold_rank</t>
   </si>
   <si>
     <t>failure_mode</t>
@@ -553,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA263B5F-7432-496A-84C8-1DFD3024D265}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -564,57 +558,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -624,9 +618,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1971D4D-A45F-41D5-A782-35642FA175F9}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -634,12 +630,10 @@
     <col min="2" max="2" width="70.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -650,22 +644,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -676,22 +664,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -702,22 +684,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -728,22 +704,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -754,22 +724,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>7</v>
       </c>
@@ -780,22 +744,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>9</v>
       </c>
@@ -806,22 +764,16 @@
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>10</v>
       </c>
@@ -837,17 +789,11 @@
       <c r="E8" s="6">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F8" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>11</v>
       </c>
@@ -858,22 +804,16 @@
         <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>15</v>
       </c>
@@ -884,22 +824,16 @@
         <v>26</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>16</v>
       </c>
@@ -910,19 +844,13 @@
         <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
